--- a/example/templ.xlsx
+++ b/example/templ.xlsx
@@ -19,12 +19,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Datum</t>
-  </si>
-  <si>
-    <t>Rolle</t>
-  </si>
-  <si>
     <t>${user.name}</t>
   </si>
   <si>
@@ -34,10 +28,16 @@
     <t>${user.date}</t>
   </si>
   <si>
-    <t>Größe</t>
-  </si>
-  <si>
-    <t>${user.sze}</t>
+    <t>${user.size}</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Size</t>
   </si>
 </sst>
 </file>
@@ -398,9 +398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -415,27 +413,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
